--- a/material_puzzle.xlsx
+++ b/material_puzzle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaom\Desktop\LabCourseLab1\LabCourseLab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78A7B105-0BA0-417B-8EBB-8927C928CAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7821DC5A-0229-450C-917B-474B96CBAFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{9B598725-4A0E-4DFF-AA8F-728E3A5C0C39}"/>
+    <workbookView xWindow="1870" yWindow="910" windowWidth="10730" windowHeight="9890" xr2:uid="{9B598725-4A0E-4DFF-AA8F-728E3A5C0C39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -506,7 +506,7 @@
         <v>64.56</v>
       </c>
       <c r="C2" s="1">
-        <v>0.1517</v>
+        <v>0.33579999999999999</v>
       </c>
       <c r="D2" s="1">
         <v>470.07</v>
